--- a/output/major_league_soccer_rosters.xlsx
+++ b/output/major_league_soccer_rosters.xlsx
@@ -10564,11 +10564,31 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Chatfield High School</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Littleton</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Cole_Bassett</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M138" t="inlineStr">
         <is>
           <t>Midfielder</t>
@@ -10603,7 +10623,7 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>2026-01-28T03:01:44.922545</t>
+          <t>2026-01-28 23:49:20</t>
         </is>
       </c>
     </row>
@@ -14839,11 +14859,31 @@
           <t>Senegal</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Episcopal High School</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Alexandria</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Dominique_Badji</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M195" t="inlineStr">
         <is>
           <t>Forward</t>
@@ -14878,7 +14918,7 @@
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>2026-01-28T03:12:41.223028</t>
+          <t>2026-01-28 23:06:19</t>
         </is>
       </c>
     </row>
@@ -14989,11 +15029,31 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>St. Thomas Aquinas High School</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Overland Park</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Kansas</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Lucas_Bartlett</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M197" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -15028,7 +15088,7 @@
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>2026-01-28T03:10:39.591369</t>
+          <t>2026-01-28 23:06:39</t>
         </is>
       </c>
     </row>
@@ -15684,11 +15744,31 @@
           <t>Japan</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Osaka Toin High School</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Daito</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Osaka</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/keisuke_kurokawa</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M206" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -15723,7 +15803,7 @@
       </c>
       <c r="W206" t="inlineStr">
         <is>
-          <t>2026-01-28T03:11:29.487044</t>
+          <t>2026-01-28 23:08:08</t>
         </is>
       </c>
     </row>
@@ -15871,7 +15951,7 @@
       </c>
       <c r="W208" t="inlineStr">
         <is>
-          <t>2026-01-28 11:09:59</t>
+          <t>2026-01-28 23:08:28</t>
         </is>
       </c>
     </row>
@@ -15907,11 +15987,31 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Massapequa High School</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Massapequa</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Sean_Nealis</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M209" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -15946,7 +16046,7 @@
       </c>
       <c r="W209" t="inlineStr">
         <is>
-          <t>2026-01-28T03:11:45.972234</t>
+          <t>2026-01-28 23:08:38</t>
         </is>
       </c>
     </row>
@@ -16205,11 +16305,23 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Palm Beach Currumbin State High School</t>
+        </is>
+      </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Kye_Rowles</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M213" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -16244,7 +16356,7 @@
       </c>
       <c r="W213" t="inlineStr">
         <is>
-          <t>2026-01-28T03:12:08.044106</t>
+          <t>2026-01-28 23:09:23</t>
         </is>
       </c>
     </row>
@@ -16430,11 +16542,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Seton Hall Prep</t>
+        </is>
+      </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Jared_Stroud</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M216" t="inlineStr">
         <is>
           <t>Midfielder</t>
@@ -16469,7 +16593,7 @@
       </c>
       <c r="W216" t="inlineStr">
         <is>
-          <t>2026-01-28T03:12:24.552154</t>
+          <t>2026-01-28 23:10:03</t>
         </is>
       </c>
     </row>
@@ -17312,11 +17436,23 @@
           <t>Zimbabwe</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Mzilikazi High School</t>
+        </is>
+      </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Teenage_Hadebe</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M228" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -17351,7 +17487,7 @@
       </c>
       <c r="W228" t="inlineStr">
         <is>
-          <t>2026-01-28T02:59:21.267227</t>
+          <t>2026-01-29 00:02:34</t>
         </is>
       </c>
     </row>
@@ -17713,11 +17849,23 @@
           <t>Sierra Leone</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Leuzinger High School</t>
+        </is>
+      </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Kei_Kamara</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M233" t="inlineStr">
         <is>
           <t>Forward</t>
@@ -17752,7 +17900,7 @@
       </c>
       <c r="W233" t="inlineStr">
         <is>
-          <t>2026-01-28T03:00:46.308909</t>
+          <t>2026-01-29 00:03:08</t>
         </is>
       </c>
     </row>
@@ -18276,11 +18424,23 @@
           <t>Jamaica</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr"/>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Paul Bogle High School</t>
+        </is>
+      </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Alvas_Powell</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M240" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -18315,7 +18475,7 @@
       </c>
       <c r="W240" t="inlineStr">
         <is>
-          <t>2026-01-28T03:00:15.240469</t>
+          <t>2026-01-29 00:03:58</t>
         </is>
       </c>
     </row>
@@ -18663,11 +18823,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Boca Raton Community High School</t>
+        </is>
+      </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/gerardo_valenzuela</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M245" t="inlineStr">
         <is>
           <t>Midfielder</t>
@@ -18700,7 +18872,7 @@
       </c>
       <c r="W245" t="inlineStr">
         <is>
-          <t>2026-01-28T03:00:39.892884</t>
+          <t>2026-01-29 00:04:47</t>
         </is>
       </c>
     </row>
@@ -21148,11 +21320,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr"/>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Evergreen High School</t>
+        </is>
+      </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Griffin_Dorsey</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M278" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -21187,7 +21371,7 @@
       </c>
       <c r="W278" t="inlineStr">
         <is>
-          <t>2026-01-28T03:13:16.103485</t>
+          <t>2026-01-28 23:21:15</t>
         </is>
       </c>
     </row>
@@ -31024,23 +31208,11 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>Lake Highlands Junior High School</t>
-        </is>
-      </c>
+      <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>https://grokipedia.com/page/matthew_corcoran</t>
-        </is>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>Grokipedia</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="inlineStr">
         <is>
           <t>Midfielder</t>
@@ -42669,11 +42841,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr"/>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>Portage Northern High School</t>
+        </is>
+      </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/brandon_bye</t>
+        </is>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M569" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -42708,7 +42892,7 @@
       </c>
       <c r="W569" t="inlineStr">
         <is>
-          <t>2026-01-28T03:44:51.539735</t>
+          <t>2026-01-28 23:15:51</t>
         </is>
       </c>
     </row>
@@ -44051,11 +44235,31 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr"/>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>Southridge High School</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>Beaverton</t>
+        </is>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/hunter_sulte</t>
+        </is>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M587" t="inlineStr">
         <is>
           <t>Goalkeeper</t>
@@ -44090,7 +44294,7 @@
       </c>
       <c r="W587" t="inlineStr">
         <is>
-          <t>2026-01-28T03:46:30.020450</t>
+          <t>2026-01-28 23:18:55</t>
         </is>
       </c>
     </row>
@@ -44708,11 +44912,31 @@
           <t>California USA</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr"/>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>Corner Canyon High School</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>Draper</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/griffin_dillon</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M596" t="inlineStr">
         <is>
           <t>Midfielder</t>
@@ -44747,7 +44971,7 @@
       </c>
       <c r="W596" t="inlineStr">
         <is>
-          <t>2026-01-28T03:47:26.527136</t>
+          <t>2026-01-28 23:44:18</t>
         </is>
       </c>
     </row>
@@ -44980,7 +45204,7 @@
       </c>
       <c r="W599" t="inlineStr">
         <is>
-          <t>2026-01-28 11:23:48</t>
+          <t>2026-01-28 23:44:37</t>
         </is>
       </c>
     </row>
@@ -45308,11 +45532,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr"/>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>Saratoga High School</t>
+        </is>
+      </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/sam_junqua</t>
+        </is>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M604" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -45347,7 +45583,7 @@
       </c>
       <c r="W604" t="inlineStr">
         <is>
-          <t>2026-01-28T03:48:08.934758</t>
+          <t>2026-01-28 23:45:37</t>
         </is>
       </c>
     </row>
@@ -54080,7 +54316,7 @@
       </c>
       <c r="W719" t="inlineStr">
         <is>
-          <t>2026-01-28T03:15:21.777457</t>
+          <t>2026-01-28 23:34:47</t>
         </is>
       </c>
     </row>
@@ -55014,11 +55250,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr"/>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>Vista Ridge High School</t>
+        </is>
+      </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Khiry_Shelton</t>
+        </is>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M732" t="inlineStr">
         <is>
           <t>Forward</t>
@@ -55053,7 +55301,7 @@
       </c>
       <c r="W732" t="inlineStr">
         <is>
-          <t>2026-01-28T03:16:44.990005</t>
+          <t>2026-01-28 23:37:16</t>
         </is>
       </c>
     </row>
@@ -56003,11 +56251,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr"/>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>Columbia High School</t>
+        </is>
+      </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/caden_glover</t>
+        </is>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M745" t="inlineStr">
         <is>
           <t>Forward</t>
@@ -56036,7 +56296,7 @@
       </c>
       <c r="W745" t="inlineStr">
         <is>
-          <t>2026-01-28T03:58:59.195518</t>
+          <t>2026-01-28 23:39:40</t>
         </is>
       </c>
     </row>
@@ -57457,11 +57717,23 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr"/>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>St. Mary's High School</t>
+        </is>
+      </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/markus_cimermancic</t>
+        </is>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M765" t="inlineStr">
         <is>
           <t>Midfielder</t>
@@ -57490,7 +57762,7 @@
       </c>
       <c r="W765" t="inlineStr">
         <is>
-          <t>2026-01-28T04:00:50.801238</t>
+          <t>2026-01-28 23:24:48</t>
         </is>
       </c>
     </row>
@@ -57812,11 +58084,23 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr"/>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>Neil McNeil Catholic High School</t>
+        </is>
+      </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Kobe_Franklin</t>
+        </is>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M770" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -57851,7 +58135,7 @@
       </c>
       <c r="W770" t="inlineStr">
         <is>
-          <t>2026-01-28T04:01:17.378412</t>
+          <t>2026-01-28 23:25:38</t>
         </is>
       </c>
     </row>
@@ -60871,11 +61155,23 @@
           <t>Japan</t>
         </is>
       </c>
-      <c r="H811" t="inlineStr"/>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>Kanagawa Prefectural Asahi High School</t>
+        </is>
+      </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>https://grokipedia.com/page/Yohei_Takaoka</t>
+        </is>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>Grokipedia</t>
+        </is>
+      </c>
       <c r="M811" t="inlineStr">
         <is>
           <t>Goalkeeper</t>
@@ -60910,7 +61206,7 @@
       </c>
       <c r="W811" t="inlineStr">
         <is>
-          <t>2026-01-28T04:05:02.313928</t>
+          <t>2026-01-28 23:32:51</t>
         </is>
       </c>
     </row>

--- a/output/major_league_soccer_rosters.xlsx
+++ b/output/major_league_soccer_rosters.xlsx
@@ -601,9 +601,21 @@
       <c r="P2" t="n">
         <v>154</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Feb 10, 1994</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Asunción</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -621,7 +633,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2026-01-28T02:48:40.008126</t>
+          <t>2026-01-30 06:18:31</t>
         </is>
       </c>
     </row>
@@ -676,9 +688,21 @@
       <c r="P3" t="n">
         <v>165</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Sep 8, 1998</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -696,7 +720,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2026-01-28T02:48:45.266283</t>
+          <t>2026-01-30 06:18:40</t>
         </is>
       </c>
     </row>
@@ -749,9 +773,21 @@
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Dec 18, 1998</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Loures</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -769,7 +805,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2026-01-28T02:48:50.403547</t>
+          <t>2026-01-30 06:18:49</t>
         </is>
       </c>
     </row>
@@ -824,9 +860,21 @@
       <c r="P5" t="n">
         <v>159</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Feb 5, 1999</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Jerez de la Frontera</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -844,7 +892,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2026-01-28T02:48:55.483230</t>
+          <t>2026-01-30 06:18:58</t>
         </is>
       </c>
     </row>
@@ -899,9 +947,17 @@
       <c r="P6" t="n">
         <v>150</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Oct 19, 2001</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -919,7 +975,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2026-01-28T02:49:00.852215</t>
+          <t>2026-01-30 06:19:08</t>
         </is>
       </c>
     </row>
@@ -945,8 +1001,16 @@
           <t>Chong Qui</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alpharetta</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -960,9 +1024,21 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Dec 29, 2007</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Alpharetta, Georgia</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -980,7 +1056,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2026-01-28T02:49:06.161622</t>
+          <t>2026-01-30 06:19:17</t>
         </is>
       </c>
     </row>
@@ -1033,9 +1109,21 @@
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Sep 5, 1989</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Cheshunt</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1053,7 +1141,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2026-01-28T02:49:11.282584</t>
+          <t>2026-01-30 06:19:26</t>
         </is>
       </c>
     </row>
@@ -1108,9 +1196,21 @@
       <c r="P9" t="n">
         <v>165</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Dec 30, 2002</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Raleigh, North ...</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1128,7 +1228,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2026-01-28T02:49:16.376467</t>
+          <t>2026-01-30 06:19:34</t>
         </is>
       </c>
     </row>
@@ -1183,9 +1283,21 @@
       <c r="P10" t="n">
         <v>183</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>May 17, 1995</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Kristiansund</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1203,7 +1315,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2026-01-28T02:49:21.548724</t>
+          <t>2026-01-30 06:19:44</t>
         </is>
       </c>
     </row>
@@ -1270,9 +1382,21 @@
       <c r="P11" t="n">
         <v>207</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Sep 9, 1984</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Evergreen Park, ...</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1290,7 +1414,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2026-01-28 11:02:59</t>
+          <t>2026-01-30 06:19:52</t>
         </is>
       </c>
     </row>
@@ -1345,9 +1469,21 @@
       <c r="P12" t="n">
         <v>154</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Sep 21, 1997</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Barinas</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
       <c r="T12" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1365,7 +1501,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2026-01-28T02:49:27.034559</t>
+          <t>2026-01-30 06:20:01</t>
         </is>
       </c>
     </row>
@@ -1426,9 +1562,21 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Aug 5, 2004</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Teaneck, New Jersey</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="T13" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1446,7 +1594,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2026-01-28 11:03:01</t>
+          <t>2026-01-30 06:20:11</t>
         </is>
       </c>
     </row>
@@ -1501,9 +1649,21 @@
       <c r="P14" t="n">
         <v>165</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Jan 1, 1999</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Anoumabo Marcory</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Cote d'Ivoire</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1521,7 +1681,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2026-01-28T02:49:37.265850</t>
+          <t>2026-01-30 06:20:20</t>
         </is>
       </c>
     </row>
@@ -1576,9 +1736,21 @@
       <c r="P15" t="n">
         <v>157</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Sep 22, 1997</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Paradise Valley, ...</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1596,7 +1768,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>2026-01-28T02:50:41.307760</t>
+          <t>2026-01-30 06:20:28</t>
         </is>
       </c>
     </row>
@@ -1651,9 +1823,21 @@
       <c r="P16" t="n">
         <v>159</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Dec 18, 1994</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Tiflis</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1671,7 +1855,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>2026-01-28T02:49:42.356528</t>
+          <t>2026-01-30 06:20:37</t>
         </is>
       </c>
     </row>
@@ -1726,9 +1910,21 @@
       <c r="P17" t="n">
         <v>172</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Jul 5, 1998</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Rodos</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1746,7 +1942,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>2026-01-28T02:49:47.530299</t>
+          <t>2026-01-30 06:20:47</t>
         </is>
       </c>
     </row>
@@ -1801,9 +1997,21 @@
       <c r="P18" t="n">
         <v>163</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Oct 17, 1995</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Slavyansk-na-Kubani,...</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1821,7 +2029,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2026-01-28T02:49:52.845143</t>
+          <t>2026-01-30 06:20:56</t>
         </is>
       </c>
     </row>
@@ -1876,9 +2084,21 @@
       <c r="P19" t="n">
         <v>128</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Jun 27, 2001</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1896,7 +2116,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>2026-01-28T02:50:46.506182</t>
+          <t>2026-01-30 06:21:04</t>
         </is>
       </c>
     </row>
@@ -1951,9 +2171,21 @@
       <c r="P20" t="n">
         <v>119</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Mar 7, 1997</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -1971,7 +2203,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>2026-01-28T02:49:57.993363</t>
+          <t>2026-01-30 06:21:13</t>
         </is>
       </c>
     </row>
@@ -1997,8 +2229,16 @@
           <t>Pita</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Weston</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2012,9 +2252,21 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Jun 1, 2007</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Weston, Florida</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2032,7 +2284,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>2026-01-28T02:50:03.323472</t>
+          <t>2026-01-30 06:21:22</t>
         </is>
       </c>
     </row>
@@ -2087,9 +2339,21 @@
       <c r="P22" t="n">
         <v>159</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Dec 13, 2002</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Decatur, Georgia</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2107,7 +2371,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>2026-01-28T02:50:08.673279</t>
+          <t>2026-01-30 06:21:32</t>
         </is>
       </c>
     </row>
@@ -2133,8 +2397,16 @@
           <t>Sanchez</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -2148,9 +2420,21 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Mar 26, 2008</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Seattle, Washington</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2168,7 +2452,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>2026-01-28T02:50:14.138858</t>
+          <t>2026-01-30 06:21:41</t>
         </is>
       </c>
     </row>
@@ -2223,9 +2507,21 @@
       <c r="P24" t="n">
         <v>168</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Mar 29, 1999</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Rybnik</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2243,7 +2539,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>2026-01-28T02:50:51.751475</t>
+          <t>2026-01-30 06:21:50</t>
         </is>
       </c>
     </row>
@@ -2298,9 +2594,21 @@
       <c r="P25" t="n">
         <v>154</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Mar 31, 1993</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Kaolack</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2318,7 +2626,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>2026-01-28T02:50:19.396353</t>
+          <t>2026-01-30 06:21:58</t>
         </is>
       </c>
     </row>
@@ -2371,9 +2679,21 @@
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Aug 10, 1993</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>New York City, New ...</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2391,7 +2711,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>2026-01-28T02:50:24.566565</t>
+          <t>2026-01-30 06:22:07</t>
         </is>
       </c>
     </row>
@@ -2440,9 +2760,21 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Nov 13, 2007</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Silver Spring, ...</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2460,7 +2792,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>2026-01-28T02:50:29.921740</t>
+          <t>2026-01-30 06:22:16</t>
         </is>
       </c>
     </row>
@@ -2515,9 +2847,17 @@
       <c r="P28" t="n">
         <v>165</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Jan 5, 1994</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2535,7 +2875,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>2026-01-29T23:10:40.857740</t>
+          <t>2026-01-30 06:22:24</t>
         </is>
       </c>
     </row>
@@ -2588,9 +2928,21 @@
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Apr 20, 2004</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Campinas</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2608,7 +2960,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>2026-01-29T23:10:46.997220</t>
+          <t>2026-01-30 06:22:33</t>
         </is>
       </c>
     </row>
@@ -2661,9 +3013,21 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Mar 26, 2006</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Mounds View, ...</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2681,7 +3045,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>2026-01-29T23:10:53.520530</t>
+          <t>2026-01-30 06:22:42</t>
         </is>
       </c>
     </row>
@@ -2736,9 +3100,21 @@
       <c r="P31" t="n">
         <v>161</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Feb 19, 1995</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Assens</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2756,7 +3132,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>2026-01-29T23:10:59.266456</t>
+          <t>2026-01-30 06:22:50</t>
         </is>
       </c>
     </row>
@@ -2809,9 +3185,21 @@
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Jan 17, 2003</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Kruševac</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2829,7 +3217,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>2026-01-29T23:11:05.175680</t>
+          <t>2026-01-30 10:16:37</t>
         </is>
       </c>
     </row>
@@ -2882,9 +3270,21 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Dec 21, 2004</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2902,7 +3302,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>2026-01-29T23:11:10.751742</t>
+          <t>2026-01-30 10:16:47</t>
         </is>
       </c>
     </row>
@@ -2957,9 +3357,21 @@
       <c r="P34" t="n">
         <v>159</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Feb 10, 2004</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Coronado, California</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -2977,7 +3389,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>2026-01-29T23:11:16.321993</t>
+          <t>2026-01-30 10:16:55</t>
         </is>
       </c>
     </row>
@@ -3032,9 +3444,21 @@
       <c r="P35" t="n">
         <v>159</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Feb 23, 1996</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Dundalk, Louth</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -3052,7 +3476,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>2026-01-29T23:11:21.840066</t>
+          <t>2026-01-30 10:17:04</t>
         </is>
       </c>
     </row>
@@ -3182,9 +3606,21 @@
       <c r="P37" t="n">
         <v>152</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Mar 3, 2000</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -3202,7 +3638,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>2026-01-29T23:11:33.605991</t>
+          <t>2026-01-30 10:17:19</t>
         </is>
       </c>
     </row>
@@ -3273,9 +3709,21 @@
       <c r="P38" t="n">
         <v>161</v>
       </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Apr 11, 2002</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Des Plaines, ...</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -3293,7 +3741,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>2026-01-29T23:11:39.328840</t>
+          <t>2026-01-30 10:17:28</t>
         </is>
       </c>
     </row>
@@ -3348,9 +3796,21 @@
       <c r="P39" t="n">
         <v>148</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Sep 26, 2002</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Toronto, Ontario</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -3368,7 +3828,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>2026-01-29T23:11:45.010195</t>
+          <t>2026-01-30 10:17:37</t>
         </is>
       </c>
     </row>
@@ -3423,9 +3883,21 @@
       <c r="P40" t="n">
         <v>150</v>
       </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Nov 28, 1985</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Montevideo</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -3443,7 +3915,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>2026-01-29T23:11:50.969666</t>
+          <t>2026-01-30 10:17:46</t>
         </is>
       </c>
     </row>
@@ -3498,9 +3970,21 @@
       <c r="P41" t="n">
         <v>161</v>
       </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Nov 6, 2000</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Tegucigalpa</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -3518,7 +4002,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>2026-01-29T23:11:57.727862</t>
+          <t>2026-01-30 10:17:55</t>
         </is>
       </c>
     </row>
@@ -3573,9 +4057,21 @@
       <c r="P42" t="n">
         <v>170</v>
       </c>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Jan 5, 1998</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -3593,7 +4089,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>2026-01-29T23:12:03.212910</t>
+          <t>2026-01-30 10:18:04</t>
         </is>
       </c>
     </row>
@@ -3648,9 +4144,21 @@
       <c r="P43" t="n">
         <v>174</v>
       </c>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Nov 21, 1990</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -3668,7 +4176,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>2026-01-29T23:12:22.941340</t>
+          <t>2026-01-30 10:18:13</t>
         </is>
       </c>
     </row>
@@ -3704,7 +4212,11 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Twinsburg High School</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>Twinsburg</t>
@@ -3739,9 +4251,21 @@
       <c r="P44" t="n">
         <v>181</v>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Apr 16, 1991</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Mayfield, Ohio</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -3759,7 +4283,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>2026-01-29T23:12:10.218844</t>
+          <t>2026-01-30 10:18:21</t>
         </is>
       </c>
     </row>
@@ -3814,9 +4338,21 @@
       <c r="P45" t="n">
         <v>172</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Sep 27, 1994</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Dniprodzerzhynsk, ...</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -3834,7 +4370,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>2026-01-29T23:12:16.693059</t>
+          <t>2026-01-30 10:18:32</t>
         </is>
       </c>
     </row>
@@ -3889,9 +4425,21 @@
       <c r="P46" t="n">
         <v>172</v>
       </c>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Oct 21, 1994</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Kuopio</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -3909,7 +4457,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>2026-01-29T23:12:29.448423</t>
+          <t>2026-01-30 10:18:41</t>
         </is>
       </c>
     </row>
@@ -3952,7 +4500,11 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -3970,7 +4522,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>2026-01-29T23:12:36.112644</t>
+          <t>2026-01-30 10:18:49</t>
         </is>
       </c>
     </row>
@@ -4011,9 +4563,17 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Nov 14, 2007</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4031,7 +4591,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>2026-01-29T23:12:42.492321</t>
+          <t>2026-01-30 10:18:58</t>
         </is>
       </c>
     </row>
@@ -4086,9 +4646,21 @@
       <c r="P49" t="n">
         <v>157</v>
       </c>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Apr 13, 2000</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Montevideo</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4106,7 +4678,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>2026-01-29T23:12:48.254624</t>
+          <t>2026-01-30 10:19:07</t>
         </is>
       </c>
     </row>
@@ -4161,9 +4733,21 @@
       <c r="P50" t="n">
         <v>159</v>
       </c>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>May 31, 1995</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Berat</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4181,7 +4765,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>2026-01-29T23:12:54.630134</t>
+          <t>2026-01-30 10:19:16</t>
         </is>
       </c>
     </row>
@@ -4236,9 +4820,21 @@
       <c r="P51" t="n">
         <v>196</v>
       </c>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Oct 14, 1998</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>San Diego, ...</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4256,7 +4852,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>2026-01-29T23:13:00.543958</t>
+          <t>2026-01-30 10:19:24</t>
         </is>
       </c>
     </row>
@@ -4311,9 +4907,21 @@
       <c r="P52" t="n">
         <v>146</v>
       </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Dec 30, 2004</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Snellville, Georgia</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4331,7 +4939,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>2026-01-29T23:13:06.514422</t>
+          <t>2026-01-30 10:19:33</t>
         </is>
       </c>
     </row>
@@ -4357,8 +4965,16 @@
           <t>Biello</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -4376,9 +4992,21 @@
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Apr 7, 2006</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Montréal, Québec</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4396,7 +5024,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>2026-01-28T03:28:21.217173</t>
+          <t>2026-01-30 10:19:42</t>
         </is>
       </c>
     </row>
@@ -4422,8 +5050,16 @@
           <t>Breza</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Ontario</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -4443,9 +5079,21 @@
       <c r="P54" t="n">
         <v>192</v>
       </c>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Mar 15, 1998</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Ottawa, Ontario</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4463,7 +5111,7 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>2026-01-28T03:28:26.224577</t>
+          <t>2026-01-30 10:19:51</t>
         </is>
       </c>
     </row>
@@ -4489,7 +5137,11 @@
           <t>Bugaj</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sosnowiec</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -4508,9 +5160,21 @@
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Jul 9, 2004</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Sosnowiec</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4528,7 +5192,7 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>2026-01-28T03:28:31.890766</t>
+          <t>2026-01-30 10:20:00</t>
         </is>
       </c>
     </row>
@@ -4554,8 +5218,16 @@
           <t>Craig</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -4575,9 +5247,21 @@
       <c r="P56" t="n">
         <v>159</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Apr 7, 2004</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Philadelphia, ...</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4595,7 +5279,7 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>2026-01-28T03:28:37.415499</t>
+          <t>2026-01-30 10:20:09</t>
         </is>
       </c>
     </row>
@@ -4688,8 +5372,16 @@
           <t>Escobar</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Lynn</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -4703,9 +5395,21 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Sep 11, 2006</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Lynn, Massachusetts</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4723,7 +5427,7 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>2026-01-28T03:28:42.604442</t>
+          <t>2026-01-30 10:20:24</t>
         </is>
       </c>
     </row>
@@ -4749,7 +5453,11 @@
           <t>Gillier</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Las Condes</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -4770,9 +5478,21 @@
       <c r="P59" t="n">
         <v>172</v>
       </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>May 28, 2004</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Las Condes</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4790,7 +5510,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>2026-01-28T03:28:48.126221</t>
+          <t>2026-01-30 10:20:33</t>
         </is>
       </c>
     </row>
@@ -4883,8 +5603,16 @@
           <t>Guboglo</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Ontario</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -4904,9 +5632,21 @@
       <c r="P61" t="n">
         <v>174</v>
       </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Mar 20, 2007</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Ottawa, Ontario</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4924,7 +5664,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>2026-01-28T03:28:58.186953</t>
+          <t>2026-01-30 10:20:48</t>
         </is>
       </c>
     </row>
@@ -4950,7 +5690,11 @@
           <t>Herbers</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Ahaus</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -4971,9 +5715,21 @@
       <c r="P62" t="n">
         <v>165</v>
       </c>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Aug 17, 1993</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Ahaus</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -4991,7 +5747,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>2026-01-28T03:29:03.286088</t>
+          <t>2026-01-30 10:20:57</t>
         </is>
       </c>
     </row>
@@ -5017,8 +5773,16 @@
           <t>Hidalgo</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sandy</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -5038,9 +5802,21 @@
       <c r="P63" t="n">
         <v>170</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Feb 22, 2002</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Sandy, Utah</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5058,7 +5834,7 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>2026-01-28T03:29:08.348659</t>
+          <t>2026-01-30 10:21:07</t>
         </is>
       </c>
     </row>
@@ -5084,7 +5860,11 @@
           <t>Ibrahim</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Keffi</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -5105,9 +5885,21 @@
       <c r="P64" t="n">
         <v>176</v>
       </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Oct 1, 2002</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Keffi</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5125,7 +5917,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>2026-01-28T03:29:14.004129</t>
+          <t>2026-01-30 10:21:17</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5943,11 @@
           <t>Jaime</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -5170,9 +5966,21 @@
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Sep 26, 2000</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5190,7 +5998,7 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>2026-01-28T03:29:19.297771</t>
+          <t>2026-01-30 10:21:25</t>
         </is>
       </c>
     </row>
@@ -5216,7 +6024,11 @@
           <t>Longstaff</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -5235,9 +6047,21 @@
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Mar 21, 2000</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5255,7 +6079,7 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>2026-01-28T03:29:24.268711</t>
+          <t>2026-01-30 10:21:38</t>
         </is>
       </c>
     </row>
@@ -5281,8 +6105,16 @@
           <t>Losenko</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bilozerske</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Donetsk ...</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -5302,9 +6134,21 @@
       <c r="P67" t="n">
         <v>154</v>
       </c>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Jul 24, 2004</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Bilozerske, Donetsk ...</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5322,7 +6166,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>2026-01-28T03:29:29.612285</t>
+          <t>2026-01-30 10:21:47</t>
         </is>
       </c>
     </row>
@@ -5348,8 +6192,16 @@
           <t>Loturi</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Alberta</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -5369,9 +6221,21 @@
       <c r="P68" t="n">
         <v>157</v>
       </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>May 21, 2001</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Calgary, Alberta</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5389,7 +6253,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>2026-01-28T03:29:35.187539</t>
+          <t>2026-01-30 10:21:55</t>
         </is>
       </c>
     </row>
@@ -5482,8 +6346,16 @@
           <t>Morales</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Decatur</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -5503,9 +6375,21 @@
       <c r="P70" t="n">
         <v>183</v>
       </c>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Mar 4, 2004</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Decatur, Georgia</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5523,7 +6407,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>2026-01-28T03:29:45.377483</t>
+          <t>2026-01-30 10:22:16</t>
         </is>
       </c>
     </row>
@@ -5549,8 +6433,16 @@
           <t>Neal</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Lakewood</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -5570,9 +6462,21 @@
       <c r="P71" t="n">
         <v>170</v>
       </c>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Aug 24, 2003</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Lakewood, California</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5590,7 +6494,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>2026-01-28T03:29:50.720079</t>
+          <t>2026-01-30 10:22:24</t>
         </is>
       </c>
     </row>
@@ -5616,7 +6520,11 @@
           <t>Opoku</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Accra</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -5637,9 +6545,21 @@
       <c r="P72" t="n">
         <v>154</v>
       </c>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Jul 13, 2001</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Accra</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
       <c r="T72" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5657,7 +6577,7 @@
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>2026-01-28T03:30:00.880188</t>
+          <t>2026-01-30 10:22:33</t>
         </is>
       </c>
     </row>
@@ -5683,7 +6603,11 @@
           <t>Osei Owusu</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Wertheim</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -5704,9 +6628,21 @@
       <c r="P73" t="n">
         <v>192</v>
       </c>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Jan 7, 1997</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Wertheim</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5724,7 +6660,7 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>2026-01-28T03:30:05.934517</t>
+          <t>2026-01-30 10:22:42</t>
         </is>
       </c>
     </row>
@@ -5750,8 +6686,16 @@
           <t>Petrasso</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Ontario</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -5771,9 +6715,21 @@
       <c r="P74" t="n">
         <v>168</v>
       </c>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Jun 16, 2000</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Toronto, Ontario</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="T74" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5791,7 +6747,7 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>2026-01-28T03:30:10.865889</t>
+          <t>2026-01-30 10:22:50</t>
         </is>
       </c>
     </row>
@@ -5817,8 +6773,16 @@
           <t>Piette</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Le Gardeur</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Quebec</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -5838,9 +6802,21 @@
       <c r="P75" t="n">
         <v>161</v>
       </c>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Nov 12, 1994</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Le Gardeur, Quebec</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="T75" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5858,7 +6834,7 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>2026-01-28T03:30:16.163751</t>
+          <t>2026-01-30 10:22:59</t>
         </is>
       </c>
     </row>
@@ -5884,8 +6860,16 @@
           <t>Sirois</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>LaSalle</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Quebec</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -5905,9 +6889,21 @@
       <c r="P76" t="n">
         <v>176</v>
       </c>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Jun 27, 2001</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>LaSalle, Quebec</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="T76" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5925,7 +6921,7 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>2026-01-28T03:30:21.420243</t>
+          <t>2026-01-30 10:23:08</t>
         </is>
       </c>
     </row>
@@ -5951,8 +6947,16 @@
           <t>Synchuk</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Manchenky</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Kharkiv ...</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -5972,9 +6976,21 @@
       <c r="P77" t="n">
         <v>176</v>
       </c>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Jul 10, 2006</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Manchenky, Kharkiv ...</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
       <c r="T77" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -5992,7 +7008,7 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>2026-01-28T03:30:26.759636</t>
+          <t>2026-01-30 10:23:17</t>
         </is>
       </c>
     </row>
@@ -6018,7 +7034,11 @@
           <t>Thorhallsson</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Hafnarfjörður</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -6037,9 +7057,21 @@
         </is>
       </c>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>May 2, 2000</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Hafnarfjörður</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
       <c r="T78" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6057,7 +7089,7 @@
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>2026-01-28T03:30:31.867042</t>
+          <t>2026-01-30 10:23:26</t>
         </is>
       </c>
     </row>
@@ -6083,7 +7115,11 @@
           <t>Vera</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -6104,9 +7140,21 @@
       <c r="P79" t="n">
         <v>170</v>
       </c>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Jan 15, 1999</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
       <c r="T79" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6124,7 +7172,7 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>2026-01-28T03:30:36.964900</t>
+          <t>2026-01-30 10:23:35</t>
         </is>
       </c>
     </row>
@@ -6179,9 +7227,21 @@
       <c r="P80" t="n">
         <v>150</v>
       </c>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Oct 3, 2001</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Petach Tikva</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
       <c r="T80" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6199,7 +7259,7 @@
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>2026-01-28T02:53:17.583415</t>
+          <t>2026-01-30 10:23:43</t>
         </is>
       </c>
     </row>
@@ -6252,9 +7312,17 @@
         </is>
       </c>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Feb 22, 2008</t>
+        </is>
+      </c>
       <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T81" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6272,7 +7340,7 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>2026-01-28T02:53:22.797423</t>
+          <t>2026-01-30 10:23:52</t>
         </is>
       </c>
     </row>
@@ -6327,9 +7395,21 @@
       <c r="P82" t="n">
         <v>137</v>
       </c>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Sep 5, 1996</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Sant Joan</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="T82" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6347,7 +7427,7 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>2026-01-28T02:53:27.983867</t>
+          <t>2026-01-30 10:24:01</t>
         </is>
       </c>
     </row>
@@ -6402,9 +7482,21 @@
       <c r="P83" t="n">
         <v>185</v>
       </c>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Sep 3, 1970</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Dunfermline</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
       <c r="T83" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6422,7 +7514,7 @@
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>2026-01-28T02:55:26.134058</t>
+          <t>2026-01-30 10:24:09</t>
         </is>
       </c>
     </row>
@@ -6477,9 +7569,21 @@
       <c r="P84" t="n">
         <v>154</v>
       </c>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Jun 20, 1995</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Westminster, ...</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T84" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6497,7 +7601,7 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>2026-01-28T02:53:33.025066</t>
+          <t>2026-01-30 10:24:18</t>
         </is>
       </c>
     </row>
@@ -6552,9 +7656,21 @@
       <c r="P85" t="n">
         <v>185</v>
       </c>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Jun 5, 1992</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>St Albans</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="T85" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6572,7 +7688,7 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>2026-01-28T02:53:37.972318</t>
+          <t>2026-01-30 10:24:27</t>
         </is>
       </c>
     </row>
@@ -6627,9 +7743,21 @@
       <c r="P86" t="n">
         <v>174</v>
       </c>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Feb 9, 2002</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>New York City, New ...</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="T86" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6647,7 +7775,7 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>2026-01-28T02:53:43.021148</t>
+          <t>2026-01-30 10:24:35</t>
         </is>
       </c>
     </row>
@@ -6700,9 +7828,21 @@
         </is>
       </c>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Jan 8, 2006</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Bamako</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Mali</t>
+        </is>
+      </c>
       <c r="T87" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6720,7 +7860,7 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>2026-01-28T02:53:48.107025</t>
+          <t>2026-01-30 10:24:44</t>
         </is>
       </c>
     </row>
@@ -6773,9 +7913,21 @@
         </is>
       </c>
       <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>May 23, 1998</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>San Diego, ...</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T88" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6793,7 +7945,7 @@
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>2026-01-28T02:55:05.339234</t>
+          <t>2026-01-30 10:24:54</t>
         </is>
       </c>
     </row>
@@ -6846,9 +7998,21 @@
         </is>
       </c>
       <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Feb 11, 1998</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Créteil</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="T89" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6866,7 +8030,7 @@
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>2026-01-28T02:53:53.149534</t>
+          <t>2026-01-30 10:25:10</t>
         </is>
       </c>
     </row>
@@ -6931,9 +8095,21 @@
         </is>
       </c>
       <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Nov 7, 2004</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Newcastle, Australia</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="T90" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -6951,7 +8127,7 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>2026-01-28 20:47:42</t>
+          <t>2026-01-30 10:25:19</t>
         </is>
       </c>
     </row>
@@ -7006,9 +8182,21 @@
       <c r="P91" t="n">
         <v>170</v>
       </c>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Jan 17, 2006</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Chapel Hill, North ...</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T91" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7026,7 +8214,7 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>2026-01-28T02:54:03.726589</t>
+          <t>2026-01-30 10:25:28</t>
         </is>
       </c>
     </row>
@@ -7079,9 +8267,21 @@
         </is>
       </c>
       <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Jul 24, 1992</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Zagreb</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
       <c r="T92" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7099,7 +8299,7 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>2026-01-28T02:54:09.006724</t>
+          <t>2026-01-30 10:25:41</t>
         </is>
       </c>
     </row>
@@ -7154,9 +8354,21 @@
       <c r="P93" t="n">
         <v>165</v>
       </c>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Oct 29, 2001</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="T93" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7174,7 +8386,7 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>2026-01-28T02:55:10.455669</t>
+          <t>2026-01-30 10:25:50</t>
         </is>
       </c>
     </row>
@@ -7229,9 +8441,21 @@
       <c r="P94" t="n">
         <v>170</v>
       </c>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Mar 11, 2005</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Loxahatchee, Florida</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T94" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7249,7 +8473,7 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>2026-01-28T02:55:31.494040</t>
+          <t>2026-01-30 10:25:58</t>
         </is>
       </c>
     </row>
@@ -7275,8 +8499,16 @@
           <t>Odunze</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Raleigh</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>North ...</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -7294,9 +8526,21 @@
         </is>
       </c>
       <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Oct 14, 2002</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Raleigh, North ...</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T95" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7314,7 +8558,7 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>2026-01-28T02:54:14.368032</t>
+          <t>2026-01-30 10:26:07</t>
         </is>
       </c>
     </row>
@@ -7369,9 +8613,21 @@
       <c r="P96" t="n">
         <v>174</v>
       </c>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Aug 2, 2000</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Fallston, Maryland</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T96" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7389,7 +8645,7 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>2026-01-28T02:54:19.813222</t>
+          <t>2026-01-30 10:26:16</t>
         </is>
       </c>
     </row>
@@ -7456,9 +8712,21 @@
       <c r="P97" t="n">
         <v>176</v>
       </c>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Oct 5, 1987</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>St. Louis, Missouri</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T97" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7476,7 +8744,7 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>2026-01-28 20:48:51</t>
+          <t>2026-01-30 10:26:25</t>
         </is>
       </c>
     </row>
@@ -7531,9 +8799,21 @@
       <c r="P98" t="n">
         <v>165</v>
       </c>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Sep 29, 1998</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Mils bei Imst</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="T98" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7551,7 +8831,7 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>2026-01-28T02:54:29.822387</t>
+          <t>2026-01-30 10:26:34</t>
         </is>
       </c>
     </row>
@@ -7626,9 +8906,21 @@
       <c r="P99" t="n">
         <v>181</v>
       </c>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Feb 21, 2005</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Ponte Vedra, Florida</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T99" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7646,7 +8938,7 @@
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>2026-01-28 20:49:16</t>
+          <t>2026-01-30 10:26:43</t>
         </is>
       </c>
     </row>
@@ -7701,9 +8993,21 @@
       <c r="P100" t="n">
         <v>157</v>
       </c>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Aug 19, 1995</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Welwyn Garden City</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="T100" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7721,7 +9025,7 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>2026-01-28T02:54:39.918197</t>
+          <t>2026-01-30 10:26:51</t>
         </is>
       </c>
     </row>
@@ -7774,9 +9078,21 @@
         </is>
       </c>
       <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Aug 9, 2004</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
       <c r="T101" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7794,7 +9110,7 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>2026-01-28T02:54:45.009192</t>
+          <t>2026-01-30 10:27:00</t>
         </is>
       </c>
     </row>
@@ -7861,9 +9177,21 @@
       <c r="P102" t="n">
         <v>174</v>
       </c>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Mar 27, 1995</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Otahuhu</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
       <c r="T102" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7881,7 +9209,7 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>2026-01-28 22:02:13</t>
+          <t>2026-01-30 10:27:09</t>
         </is>
       </c>
     </row>
@@ -7936,9 +9264,21 @@
       <c r="P103" t="n">
         <v>154</v>
       </c>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Jan 2, 2002</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
       <c r="T103" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -7956,7 +9296,7 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>2026-01-28T02:54:50.052409</t>
+          <t>2026-01-30 10:27:17</t>
         </is>
       </c>
     </row>
@@ -8011,9 +9351,21 @@
       <c r="P104" t="n">
         <v>176</v>
       </c>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Apr 1, 1990</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Nantwich</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="T104" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -8031,7 +9383,7 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>2026-01-28T02:54:55.095444</t>
+          <t>2026-01-30 10:27:26</t>
         </is>
       </c>
     </row>
@@ -8106,9 +9458,21 @@
       <c r="P105" t="n">
         <v>170</v>
       </c>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Jun 11, 1997</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Alexandria, Virginia</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T105" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -8126,7 +9490,7 @@
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>2026-01-28 22:02:48</t>
+          <t>2026-01-30 10:27:35</t>
         </is>
       </c>
     </row>
@@ -8181,9 +9545,21 @@
       <c r="P106" t="n">
         <v>146</v>
       </c>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Nov 10, 1992</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Abidjan</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Cote d'Ivoire</t>
+        </is>
+      </c>
       <c r="T106" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -8201,7 +9577,7 @@
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>2026-01-28T02:55:00.322104</t>
+          <t>2026-01-30 10:27:44</t>
         </is>
       </c>
     </row>
@@ -8227,8 +9603,16 @@
           <t>Acosta</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Plano</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -8248,9 +9632,21 @@
       <c r="P107" t="n">
         <v>150</v>
       </c>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Jul 24, 1995</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Plano, Texas</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T107" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -8268,7 +9664,7 @@
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>2026-01-28T02:58:09.893471</t>
+          <t>2026-01-30 10:27:54</t>
         </is>
       </c>
     </row>
@@ -8323,9 +9719,21 @@
       <c r="P108" t="n">
         <v>159</v>
       </c>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Mar 26, 1996</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Alfortville</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Cote d'Ivoire</t>
+        </is>
+      </c>
       <c r="T108" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -8343,7 +9751,7 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>2026-01-28T02:55:43.949772</t>
+          <t>2026-01-30 10:28:03</t>
         </is>
       </c>
     </row>
@@ -8398,9 +9806,21 @@
       <c r="P109" t="n">
         <v>159</v>
       </c>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Jun 12, 2005</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Setúbal</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="T109" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -8418,7 +9838,7 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>2026-01-28T02:55:49.084254</t>
+          <t>2026-01-30 10:28:12</t>
         </is>
       </c>
     </row>
@@ -8471,9 +9891,21 @@
         </is>
       </c>
       <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Jun 7, 2006</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Palatine, Illinois</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T110" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -8491,7 +9923,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>2026-01-28T02:55:54.086090</t>
+          <t>2026-01-30 10:28:20</t>
         </is>
       </c>
     </row>
@@ -8546,9 +9978,21 @@
       <c r="P111" t="n">
         <v>165</v>
       </c>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Jun 2, 2006</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T111" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -8566,7 +10010,7 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>2026-01-28T02:55:59.260171</t>
+          <t>2026-01-30 10:28:29</t>
         </is>
       </c>
     </row>
@@ -8621,9 +10065,21 @@
       <c r="P112" t="n">
         <v>170</v>
       </c>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Mar 3, 2004</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Naperville, Illinois</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T112" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -8641,7 +10097,7 @@
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>2026-01-28T02:56:05.740550</t>
+          <t>2026-01-30 10:28:38</t>
         </is>
       </c>
     </row>
@@ -8667,8 +10123,16 @@
           <t>Cohen</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Mountain View</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -8688,9 +10152,21 @@
       <c r="P113" t="n">
         <v>174</v>
       </c>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Aug 18, 1992</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Mountain View, ...</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T113" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -8708,7 +10184,7 @@
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>2026-01-28T02:56:11.092959</t>
+          <t>2026-01-30 10:28:46</t>
         </is>
       </c>
     </row>
@@ -8775,9 +10251,21 @@
       <c r="P114" t="n">
         <v>174</v>
       </c>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>May 26, 2008</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T114" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -8795,7 +10283,7 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>2026-01-28 10:16:27</t>
+          <t>2026-01-30 10:28:55</t>
         </is>
       </c>
     </row>
@@ -8850,9 +10338,21 @@
       <c r="P115" t="n">
         <v>165</v>
       </c>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Feb 7, 1997</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Liège</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="T115" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -8870,7 +10370,7 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>2026-01-28T02:56:21.691247</t>
+          <t>2026-01-30 10:29:04</t>
         </is>
       </c>
     </row>
@@ -9000,9 +10500,21 @@
       <c r="P117" t="n">
         <v>159</v>
       </c>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>May 15, 1997</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Macon, Georgia</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T117" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9020,7 +10532,7 @@
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>2026-01-28T02:56:26.756410</t>
+          <t>2026-01-30 10:29:18</t>
         </is>
       </c>
     </row>
@@ -9075,9 +10587,21 @@
       <c r="P118" t="n">
         <v>183</v>
       </c>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Aug 25, 1995</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="T118" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9095,7 +10619,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>2026-01-28T02:56:37.077489</t>
+          <t>2026-01-30 10:29:30</t>
         </is>
       </c>
     </row>
@@ -9148,9 +10672,21 @@
         </is>
       </c>
       <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Apr 12, 1998</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="T119" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9168,7 +10704,7 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>2026-01-28T02:56:42.512327</t>
+          <t>2026-01-30 10:29:38</t>
         </is>
       </c>
     </row>
@@ -9221,9 +10757,21 @@
         </is>
       </c>
       <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Apr 6, 1993</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T120" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9241,7 +10789,7 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>2026-01-28T02:56:47.646797</t>
+          <t>2026-01-30 10:29:47</t>
         </is>
       </c>
     </row>
@@ -9296,9 +10844,21 @@
       <c r="P121" t="n">
         <v>150</v>
       </c>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Nov 22, 2003</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Georgetown</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
+      </c>
       <c r="T121" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9316,7 +10876,7 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>2026-01-28T02:56:52.498172</t>
+          <t>2026-01-30 10:29:56</t>
         </is>
       </c>
     </row>
@@ -9383,9 +10943,21 @@
       <c r="P122" t="n">
         <v>159</v>
       </c>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Oct 2, 1996</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Hinsdale, Illinois</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T122" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9403,7 +10975,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>2026-01-28 11:05:54</t>
+          <t>2026-01-30 10:30:19</t>
         </is>
       </c>
     </row>
@@ -9527,9 +11099,21 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Sep 19, 2005</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Hluhluwe, ...</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
       <c r="T124" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9547,7 +11131,7 @@
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>2026-01-28T02:57:08.286698</t>
+          <t>2026-01-30 10:30:34</t>
         </is>
       </c>
     </row>
@@ -9602,9 +11186,21 @@
       <c r="P125" t="n">
         <v>163</v>
       </c>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Aug 29, 1996</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Schaumburg, Illinois</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T125" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9622,7 +11218,7 @@
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>2026-01-28T02:57:13.447838</t>
+          <t>2026-01-30 10:30:43</t>
         </is>
       </c>
     </row>
@@ -9677,9 +11273,21 @@
       <c r="P126" t="n">
         <v>143</v>
       </c>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>May 16, 2005</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Evergreen Park, ...</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T126" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9697,7 +11305,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>2026-01-28T02:57:18.652632</t>
+          <t>2026-01-30 10:30:52</t>
         </is>
       </c>
     </row>
@@ -9752,9 +11360,21 @@
       <c r="P127" t="n">
         <v>172</v>
       </c>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>Oct 17, 1997</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T127" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9772,7 +11392,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>2026-01-28T02:57:23.798562</t>
+          <t>2026-01-30 10:31:00</t>
         </is>
       </c>
     </row>
@@ -9827,9 +11447,21 @@
       <c r="P128" t="n">
         <v>340</v>
       </c>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Jul 14, 2004</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Mladenovac</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="T128" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9847,7 +11479,7 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>2026-01-28T02:57:28.677882</t>
+          <t>2026-01-30 10:31:09</t>
         </is>
       </c>
     </row>
@@ -9902,9 +11534,21 @@
       <c r="P129" t="n">
         <v>190</v>
       </c>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>May 17, 1999</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Seattle, Washington</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T129" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9922,7 +11566,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>2026-01-28T02:57:33.911579</t>
+          <t>2026-01-30 10:31:20</t>
         </is>
       </c>
     </row>
@@ -9971,9 +11615,21 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>Apr 12, 1996</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="T130" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -9991,7 +11647,7 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>2026-01-28T02:57:38.827672</t>
+          <t>2026-01-30 10:31:29</t>
         </is>
       </c>
     </row>
@@ -10046,9 +11702,21 @@
       <c r="P131" t="n">
         <v>161</v>
       </c>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>Sep 30, 2002</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Erie, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T131" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10066,7 +11734,7 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>2026-01-28T02:57:43.996944</t>
+          <t>2026-01-30 10:31:38</t>
         </is>
       </c>
     </row>
@@ -10121,9 +11789,21 @@
       <c r="P132" t="n">
         <v>135</v>
       </c>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>Jan 14, 2010</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Niles, Illinois</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T132" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10141,7 +11821,7 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>2026-01-28T02:57:48.995678</t>
+          <t>2026-01-30 10:31:46</t>
         </is>
       </c>
     </row>
@@ -10196,9 +11876,21 @@
       <c r="P133" t="n">
         <v>172</v>
       </c>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>Jan 24, 1996</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Langley, British ...</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="T133" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10216,7 +11908,7 @@
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>2026-01-28T02:57:53.999952</t>
+          <t>2026-01-30 10:32:23</t>
         </is>
       </c>
     </row>
@@ -10265,9 +11957,21 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>Oct 15, 1987</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Macclesfield</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="T134" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10285,7 +11989,7 @@
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>2026-01-28T02:57:59.041095</t>
+          <t>2026-01-30 10:32:31</t>
         </is>
       </c>
     </row>
@@ -10340,9 +12044,21 @@
       <c r="P135" t="n">
         <v>161</v>
       </c>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>Dec 16, 1994</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="T135" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10360,7 +12076,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>2026-01-28T02:58:04.720934</t>
+          <t>2026-01-30 10:32:40</t>
         </is>
       </c>
     </row>
@@ -10415,9 +12131,21 @@
       <c r="P136" t="n">
         <v>139</v>
       </c>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>Aug 26, 2003</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Medford, New Jersey</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T136" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10435,7 +12163,7 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>2026-01-28T03:01:28.634315</t>
+          <t>2026-01-30 10:32:49</t>
         </is>
       </c>
     </row>
@@ -10488,9 +12216,21 @@
         </is>
       </c>
       <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>Oct 2, 2002</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Yaoundé</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
       <c r="T137" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10508,7 +12248,7 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>2026-01-28T03:01:33.930793</t>
+          <t>2026-01-30 10:32:57</t>
         </is>
       </c>
     </row>
@@ -10575,9 +12315,21 @@
       <c r="P138" t="n">
         <v>174</v>
       </c>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Jan 31, 2002</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Bellevue, Washington</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T138" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10595,7 +12347,7 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>2026-01-28 11:06:47</t>
+          <t>2026-01-30 10:33:06</t>
         </is>
       </c>
     </row>
@@ -10670,9 +12422,21 @@
       <c r="P139" t="n">
         <v>150</v>
       </c>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Jul 28, 2001</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Littleton, Colorado</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T139" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10690,7 +12454,7 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>2026-01-28 23:49:20</t>
+          <t>2026-01-30 10:33:16</t>
         </is>
       </c>
     </row>
@@ -10743,9 +12507,21 @@
         </is>
       </c>
       <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>Apr 18, 2006</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>O'Fallon, Missouri</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T140" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10763,7 +12539,7 @@
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>2026-01-28T03:01:50.604138</t>
+          <t>2026-01-30 10:33:24</t>
         </is>
       </c>
     </row>
@@ -10789,8 +12565,16 @@
           <t>Campagnolo</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Fort Myers</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -10804,9 +12588,21 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>Mar 12, 2007</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Fort Myers, Florida</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T141" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10824,7 +12620,7 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>2026-01-28T03:01:56.181841</t>
+          <t>2026-01-30 10:33:33</t>
         </is>
       </c>
     </row>
@@ -10879,9 +12675,21 @@
       <c r="P142" t="n">
         <v>163</v>
       </c>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>Jun 11, 1998</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T142" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10899,7 +12707,7 @@
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>2026-01-28T03:02:02.056235</t>
+          <t>2026-01-30 10:33:42</t>
         </is>
       </c>
     </row>
@@ -10954,9 +12762,21 @@
       <c r="P143" t="n">
         <v>165</v>
       </c>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>Jul 20, 2005</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Chattanooga, ...</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T143" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -10974,7 +12794,7 @@
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>2026-01-28T03:02:07.288862</t>
+          <t>2026-01-30 10:33:50</t>
         </is>
       </c>
     </row>
@@ -11104,9 +12924,21 @@
       <c r="P145" t="n">
         <v>176</v>
       </c>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>Apr 25, 1980</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Beverley</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="T145" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -11124,7 +12956,7 @@
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>2026-01-28T03:04:12.878667</t>
+          <t>2026-01-30 10:34:05</t>
         </is>
       </c>
     </row>
@@ -11173,9 +13005,21 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>Jan 14, 2004</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Kumasi</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
       <c r="T146" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -11193,7 +13037,7 @@
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>2026-01-28T03:02:12.853963</t>
+          <t>2026-01-30 10:34:14</t>
         </is>
       </c>
     </row>
@@ -11248,9 +13092,21 @@
       <c r="P147" t="n">
         <v>146</v>
       </c>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Jun 13, 2004</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Cabin John, Maryland</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago</t>
+        </is>
+      </c>
       <c r="T147" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -11268,7 +13124,7 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>2026-01-28T03:02:18.791580</t>
+          <t>2026-01-30 10:34:23</t>
         </is>
       </c>
     </row>
@@ -11398,9 +13254,21 @@
       <c r="P149" t="n">
         <v>176</v>
       </c>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Jul 5, 2007</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Brisbane</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="T149" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -11418,7 +13286,7 @@
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>2026-01-28T03:02:35.859628</t>
+          <t>2026-01-30 10:34:37</t>
         </is>
       </c>
     </row>
@@ -11473,9 +13341,21 @@
       <c r="P150" t="n">
         <v>179</v>
       </c>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Sep 20, 1995</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Stalybridge</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="T150" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -11493,7 +13373,7 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>2026-01-28T03:02:41.470824</t>
+          <t>2026-01-30 10:34:47</t>
         </is>
       </c>
     </row>
@@ -11548,9 +13428,21 @@
       <c r="P151" t="n">
         <v>170</v>
       </c>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Jan 6, 2006</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T151" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -11568,7 +13460,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>2026-01-28T03:02:46.965188</t>
+          <t>2026-01-30 10:35:24</t>
         </is>
       </c>
     </row>
@@ -11718,9 +13610,21 @@
       <c r="P153" t="n">
         <v>148</v>
       </c>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Jan 30, 2003</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Puerto Tejada</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
       <c r="T153" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -11738,7 +13642,7 @@
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>2026-01-28T03:02:57.640015</t>
+          <t>2026-01-30 10:35:38</t>
         </is>
       </c>
     </row>
@@ -11793,9 +13697,21 @@
       <c r="P154" t="n">
         <v>187</v>
       </c>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Mar 18, 1994</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="T154" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -11813,7 +13729,7 @@
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>2026-01-28T03:04:07.540759</t>
+          <t>2026-01-30 10:35:47</t>
         </is>
       </c>
     </row>
@@ -11868,9 +13784,21 @@
       <c r="P155" t="n">
         <v>185</v>
       </c>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Jan 16, 2000</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Redlands, California</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T155" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -11888,7 +13816,7 @@
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>2026-01-28T03:03:04.245935</t>
+          <t>2026-01-30 10:35:59</t>
         </is>
       </c>
     </row>
@@ -11943,9 +13871,21 @@
       <c r="P156" t="n">
         <v>185</v>
       </c>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Apr 14, 2000</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Cabo Frio</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
       <c r="T156" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -11963,7 +13903,7 @@
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>2026-01-28T03:03:09.581172</t>
+          <t>2026-01-30 10:36:08</t>
         </is>
       </c>
     </row>
@@ -12018,9 +13958,21 @@
       <c r="P157" t="n">
         <v>154</v>
       </c>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Mar 6, 1998</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
       <c r="T157" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -12038,7 +13990,7 @@
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>2026-01-28T03:03:14.973342</t>
+          <t>2026-01-30 10:36:16</t>
         </is>
       </c>
     </row>
@@ -12105,9 +14057,21 @@
       <c r="P158" t="n">
         <v>161</v>
       </c>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Dec 11, 1993</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Harrisburg, ...</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T158" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -12125,7 +14089,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>2026-01-28 11:07:57</t>
+          <t>2026-01-30 10:36:25</t>
         </is>
       </c>
     </row>
@@ -12180,9 +14144,21 @@
       <c r="P159" t="n">
         <v>163</v>
       </c>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Sep 15, 1995</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
       <c r="T159" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -12200,7 +14176,7 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>2026-01-28T03:03:25.564113</t>
+          <t>2026-01-30 10:36:33</t>
         </is>
       </c>
     </row>
@@ -12255,9 +14231,21 @@
       <c r="P160" t="n">
         <v>176</v>
       </c>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Apr 17, 2003</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Brooklyn, New York</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago</t>
+        </is>
+      </c>
       <c r="T160" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -12275,7 +14263,7 @@
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>2026-01-28T03:03:30.720517</t>
+          <t>2026-01-30 10:36:42</t>
         </is>
       </c>
     </row>
@@ -12342,9 +14330,21 @@
       <c r="P161" t="n">
         <v>190</v>
       </c>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Apr 2, 1995</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Coatesville, ...</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T161" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -12362,7 +14362,7 @@
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>2026-01-28 11:08:06</t>
+          <t>2026-01-30 10:36:51</t>
         </is>
       </c>
     </row>
@@ -12484,9 +14484,21 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Feb 23, 2004</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Jackson, Mississippi</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T163" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -12504,7 +14516,7 @@
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>2026-01-28T03:03:46.352694</t>
+          <t>2026-01-30 10:37:05</t>
         </is>
       </c>
     </row>
@@ -12559,9 +14571,21 @@
       <c r="P164" t="n">
         <v>150</v>
       </c>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>May 31, 1999</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Colorado Springs, ...</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T164" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -12579,7 +14603,7 @@
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>2026-01-28T03:03:52.070506</t>
+          <t>2026-01-30 10:37:14</t>
         </is>
       </c>
     </row>
@@ -12634,9 +14658,21 @@
       <c r="P165" t="n">
         <v>172</v>
       </c>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Jun 11, 2004</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Vancouver, British ...</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="T165" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -12654,7 +14690,7 @@
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>2026-01-28T03:03:57.091255</t>
+          <t>2026-01-30 10:37:23</t>
         </is>
       </c>
     </row>
@@ -12709,9 +14745,21 @@
       <c r="P166" t="n">
         <v>174</v>
       </c>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Nov 19, 2004</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Denver, Colorado</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T166" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -12729,7 +14777,7 @@
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>2026-01-28T03:04:02.382919</t>
+          <t>2026-01-30 10:37:31</t>
         </is>
       </c>
     </row>
@@ -12784,9 +14832,21 @@
       <c r="P167" t="n">
         <v>172</v>
       </c>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Jan 4, 1999</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Aalborg</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>Palestine</t>
+        </is>
+      </c>
       <c r="T167" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -12804,7 +14864,7 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>2026-01-28T03:04:26.032496</t>
+          <t>2026-01-30 10:37:41</t>
         </is>
       </c>
     </row>
@@ -12859,9 +14919,21 @@
       <c r="P168" t="n">
         <v>179</v>
       </c>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Feb 11, 1998</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Herfølge</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="T168" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -12879,7 +14951,7 @@
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>2026-01-28T03:04:42.760285</t>
+          <t>2026-01-30 10:37:50</t>
         </is>
       </c>
     </row>
@@ -12992,8 +15064,16 @@
           <t>Brown</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Novi</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -13007,9 +15087,21 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Oct 17, 2007</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Novi, Michigan</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T170" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -13027,7 +15119,7 @@
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>2026-01-28T03:04:53.903953</t>
+          <t>2026-01-30 10:38:05</t>
         </is>
       </c>
     </row>
@@ -13102,9 +15194,21 @@
       <c r="P171" t="n">
         <v>187</v>
       </c>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Mar 6, 1986</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Concord Township, ...</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T171" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -13122,7 +15226,7 @@
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>2026-01-28 11:08:29</t>
+          <t>2026-01-30 10:38:13</t>
         </is>
       </c>
     </row>
@@ -13177,9 +15281,21 @@
       <c r="P172" t="n">
         <v>174</v>
       </c>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Mar 5, 1991</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>L'Arbresle</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="T172" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -13197,7 +15313,7 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>2026-01-28T03:05:04.461439</t>
+          <t>2026-01-30 10:38:22</t>
         </is>
       </c>
     </row>
@@ -13223,7 +15339,11 @@
           <t>Chambost</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -13244,9 +15364,21 @@
       <c r="P173" t="n">
         <v>154</v>
       </c>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Aug 19, 1997</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="T173" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -13264,7 +15396,7 @@
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>2026-01-28T03:05:09.761781</t>
+          <t>2026-01-30 10:38:31</t>
         </is>
       </c>
     </row>
@@ -13319,9 +15451,21 @@
       <c r="P174" t="n">
         <v>146</v>
       </c>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Jan 23, 1998</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Melitopol</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
       <c r="T174" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -13339,7 +15483,7 @@
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>2026-01-28T03:05:15.192551</t>
+          <t>2026-01-30 10:38:40</t>
         </is>
       </c>
     </row>
@@ -13394,9 +15538,21 @@
       <c r="P175" t="n">
         <v>159</v>
       </c>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Jan 30, 2004</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Charleston, West ...</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T175" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -13414,7 +15570,7 @@
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>2026-01-28T03:05:20.882193</t>
+          <t>2026-01-30 10:38:48</t>
         </is>
       </c>
     </row>
@@ -13469,9 +15625,21 @@
       <c r="P176" t="n">
         <v>152</v>
       </c>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Dec 16, 1999</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Montréal, Québec</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
       <c r="T176" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -13489,7 +15657,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>2026-01-28T03:05:26.035652</t>
+          <t>2026-01-30 10:38:57</t>
         </is>
       </c>
     </row>
@@ -13544,9 +15712,21 @@
       <c r="P177" t="n">
         <v>168</v>
       </c>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Mar 2, 1996</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Nyíregyháza</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
       <c r="T177" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -13564,7 +15744,7 @@
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>2026-01-28T03:05:31.387501</t>
+          <t>2026-01-30 10:39:06</t>
         </is>
       </c>
     </row>
@@ -13617,9 +15797,21 @@
         </is>
       </c>
       <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Feb 5, 2006</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Columbus, Ohio</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T178" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -13637,7 +15829,7 @@
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>2026-01-28T03:05:37.641344</t>
+          <t>2026-01-30 10:39:18</t>
         </is>
       </c>
     </row>
@@ -13692,9 +15884,21 @@
       <c r="P179" t="n">
         <v>176</v>
       </c>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Aug 2, 1996</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Nueva Guatemala de ...</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
       <c r="T179" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -13712,7 +15916,7 @@
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>2026-01-28T03:05:43.005836</t>
+          <t>2026-01-30 10:39:27</t>
         </is>
       </c>
     </row>
@@ -13767,9 +15971,21 @@
       <c r="P180" t="n">
         <v>165</v>
       </c>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Nov 3, 1998</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Corrientes</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
       <c r="T180" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -13787,7 +16003,7 @@
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>2026-01-28T03:05:48.461770</t>
+          <t>2026-01-30 10:39:37</t>
         </is>
       </c>
     </row>
@@ -13905,9 +16121,21 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Mar 3, 2006</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Minsk</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Belarus</t>
+        </is>
+      </c>
       <c r="T182" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -13925,7 +16153,7 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>2026-01-28T03:05:54.015182</t>
+          <t>2026-01-30 10:39:51</t>
         </is>
       </c>
     </row>
@@ -13986,9 +16214,21 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Apr 17, 2008</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Naperville, Illinois</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T183" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -14006,7 +16246,7 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>2026-01-28 11:08:45</t>
+          <t>2026-01-30 10:40:00</t>
         </is>
       </c>
     </row>
@@ -14061,9 +16301,21 @@
       <c r="P184" t="n">
         <v>159</v>
       </c>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Aug 13, 1994</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Noisy-le-Grand</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>Cape Verde</t>
+        </is>
+      </c>
       <c r="T184" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -14081,7 +16333,7 @@
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>2026-01-28T03:05:59.479530</t>
+          <t>2026-01-30 10:40:09</t>
         </is>
       </c>
     </row>
@@ -14130,9 +16382,21 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Apr 6, 2006</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T185" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -14150,7 +16414,7 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>2026-01-28T03:06:05.364850</t>
+          <t>2026-01-30 10:40:17</t>
         </is>
       </c>
     </row>
@@ -14203,9 +16467,21 @@
         </is>
       </c>
       <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>May 9, 2003</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Torfou</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="T186" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -14223,7 +16499,7 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>2026-01-28T03:06:11.080096</t>
+          <t>2026-01-30 10:40:26</t>
         </is>
       </c>
     </row>
@@ -14272,9 +16548,17 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Feb 21, 2006</t>
+        </is>
+      </c>
       <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr"/>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T187" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -14292,7 +16576,7 @@
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>2026-01-28T03:06:17.312594</t>
+          <t>2026-01-30 10:40:35</t>
         </is>
       </c>
     </row>
@@ -14347,9 +16631,21 @@
       <c r="P188" t="n">
         <v>143</v>
       </c>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Mar 5, 1998</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Montevideo</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
       <c r="T188" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -14367,7 +16663,7 @@
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>2026-01-28T03:06:23.052575</t>
+          <t>2026-01-30 10:40:43</t>
         </is>
       </c>
     </row>
@@ -14468,8 +16764,16 @@
           <t>Ruvalcaba</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>South Gate</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -14483,9 +16787,21 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Jul 13, 2001</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>South Gate, ...</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T190" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -14503,7 +16819,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>2026-01-28T03:06:35.534274</t>
+          <t>2026-01-30 10:40:58</t>
         </is>
       </c>
     </row>
@@ -14570,9 +16886,21 @@
       <c r="P191" t="n">
         <v>174</v>
       </c>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Mar 13, 2001</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Saint Charles, ...</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T191" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -14590,7 +16918,7 @@
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>2026-01-28 21:45:40</t>
+          <t>2026-01-30 10:41:07</t>
         </is>
       </c>
     </row>
@@ -14645,9 +16973,21 @@
       <c r="P192" t="n">
         <v>159</v>
       </c>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Nov 29, 1996</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T192" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -14665,7 +17005,7 @@
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>2026-01-28T03:06:49.139902</t>
+          <t>2026-01-30 10:41:16</t>
         </is>
       </c>
     </row>
@@ -14720,9 +17060,21 @@
       <c r="P193" t="n">
         <v>159</v>
       </c>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Apr 21, 2000</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Olmsted Falls, Ohio</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T193" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -14740,7 +17092,7 @@
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>2026-01-28 10:27:03</t>
+          <t>2026-01-30 10:41:25</t>
         </is>
       </c>
     </row>
@@ -14870,9 +17222,21 @@
       <c r="P195" t="n">
         <v>146</v>
       </c>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Mar 16, 2010</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Choluteca</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T195" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -14890,7 +17254,7 @@
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>2026-01-28T03:10:28.591627</t>
+          <t>2026-01-30 10:41:39</t>
         </is>
       </c>
     </row>
@@ -14965,9 +17329,21 @@
       <c r="P196" t="n">
         <v>170</v>
       </c>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Oct 16, 1992</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Dakar</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
       <c r="T196" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -14985,7 +17361,7 @@
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>2026-01-28 23:06:19</t>
+          <t>2026-01-30 10:41:48</t>
         </is>
       </c>
     </row>
@@ -15040,9 +17416,21 @@
       <c r="P197" t="n">
         <v>172</v>
       </c>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Jan 15, 1998</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Eilat</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
       <c r="T197" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -15060,7 +17448,7 @@
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>2026-01-28T03:10:34.184033</t>
+          <t>2026-01-30 10:41:57</t>
         </is>
       </c>
     </row>
@@ -15135,9 +17523,21 @@
       <c r="P198" t="n">
         <v>201</v>
       </c>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Jul 26, 1997</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Overland Park, ...</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T198" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -15155,7 +17555,7 @@
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>2026-01-28 23:06:39</t>
+          <t>2026-01-30 10:42:06</t>
         </is>
       </c>
     </row>
@@ -15222,9 +17622,21 @@
       <c r="P199" t="n">
         <v>209</v>
       </c>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Apr 25, 1994</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Syracuse, New York</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T199" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -15242,7 +17654,7 @@
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>2026-01-28 11:09:22</t>
+          <t>2026-01-30 10:42:14</t>
         </is>
       </c>
     </row>
@@ -15297,9 +17709,21 @@
       <c r="P200" t="n">
         <v>161</v>
       </c>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>May 27, 2003</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Medina, Minnesota</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T200" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -15317,7 +17741,7 @@
       </c>
       <c r="W200" t="inlineStr">
         <is>
-          <t>2026-01-28T03:10:50.862433</t>
+          <t>2026-01-30 10:42:23</t>
         </is>
       </c>
     </row>
@@ -15372,9 +17796,21 @@
       <c r="P201" t="n">
         <v>181</v>
       </c>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Oct 5, 1994</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Salem, Oregon</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T201" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -15392,7 +17828,7 @@
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>2026-01-28T03:10:56.531040</t>
+          <t>2026-01-30 10:42:32</t>
         </is>
       </c>
     </row>
@@ -15447,9 +17883,21 @@
       <c r="P202" t="n">
         <v>176</v>
       </c>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Jun 6, 1997</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Las Cruces, New ...</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
       <c r="T202" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -15467,7 +17915,7 @@
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>2026-01-28T03:11:02.182288</t>
+          <t>2026-01-30 10:42:41</t>
         </is>
       </c>
     </row>
@@ -15522,9 +17970,21 @@
       <c r="P203" t="n">
         <v>163</v>
       </c>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Jul 1, 2004</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Fredericksburg, ...</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T203" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -15542,7 +18002,7 @@
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>2026-01-28 10:28:55</t>
+          <t>2026-01-30 10:42:49</t>
         </is>
       </c>
     </row>
@@ -15609,9 +18069,21 @@
       <c r="P204" t="n">
         <v>216</v>
       </c>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>May 31, 1989</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Lilburn, Georgia</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T204" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -15629,7 +18101,7 @@
       </c>
       <c r="W204" t="inlineStr">
         <is>
-          <t>2026-01-28 11:09:52</t>
+          <t>2026-01-30 10:42:58</t>
         </is>
       </c>
     </row>
@@ -15682,9 +18154,21 @@
         </is>
       </c>
       <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Nov 1, 2005</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>New York City, New ...</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T205" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -15702,7 +18186,7 @@
       </c>
       <c r="W205" t="inlineStr">
         <is>
-          <t>2026-01-28T03:11:18.928401</t>
+          <t>2026-01-30 10:43:07</t>
         </is>
       </c>
     </row>
@@ -15755,9 +18239,21 @@
         </is>
       </c>
       <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Jul 1, 2002</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Yokohama, Kanagawa</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
       <c r="T206" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -15775,7 +18271,7 @@
       </c>
       <c r="W206" t="inlineStr">
         <is>
-          <t>2026-01-28T03:11:24.176278</t>
+          <t>2026-01-30 10:43:16</t>
         </is>
       </c>
     </row>
@@ -15850,9 +18346,21 @@
       <c r="P207" t="n">
         <v>154</v>
       </c>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Apr 13, 1997</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Akashi, Hyogo</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
       <c r="T207" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -15870,7 +18378,7 @@
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>2026-01-28 23:08:08</t>
+          <t>2026-01-30 10:43:24</t>
         </is>
       </c>
     </row>
@@ -15925,9 +18433,21 @@
       <c r="P208" t="n">
         <v>170</v>
       </c>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Jun 16, 2002</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Vaslui</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="T208" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -15945,7 +18465,7 @@
       </c>
       <c r="W208" t="inlineStr">
         <is>
-          <t>2026-01-28T03:11:34.815778</t>
+          <t>2026-01-30 10:43:33</t>
         </is>
       </c>
     </row>
@@ -15981,11 +18501,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Gatorade High School</t>
+        </is>
+      </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Jacob_Murrell</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Wikipedia</t>
+        </is>
+      </c>
       <c r="M209" t="inlineStr">
         <is>
           <t>Forward</t>
@@ -15998,9 +18530,21 @@
         </is>
       </c>
       <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Mar 29, 2004</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Forest Hill, ...</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T209" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -16018,7 +18562,7 @@
       </c>
       <c r="W209" t="inlineStr">
         <is>
-          <t>2026-01-28 23:08:28</t>
+          <t>2026-01-30 10:43:41</t>
         </is>
       </c>
     </row>
@@ -16093,9 +18637,21 @@
       <c r="P210" t="n">
         <v>174</v>
       </c>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Jan 13, 1997</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Massapequa, New York</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="T210" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -16113,7 +18669,7 @@
       </c>
       <c r="W210" t="inlineStr">
         <is>
-          <t>2026-01-28 23:08:38</t>
+          <t>2026-01-30 10:43:50</t>
         </is>
       </c>
     </row>
@@ -16168,9 +18724,21 @@
       <c r="P211" t="n">
         <v>150</v>
       </c>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Jan 7, 2002</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Porto Alegre</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
       <c r="T211" t="inlineStr">
         <is>
           <t>https://images.mlssoccer.com/image/upload/v1736288054/assets/crest/MLS_CREST_1C_RGB_WHI_NO_BKGD_68x68_1_2_rwknik.png</t>
@@ -16188,7 +18756,7 @@
       </c>
       <c r="W211" t="inlineStr">
         <is>
-          <t>2026-01-28T03:11:51.606323</t>
+          <t>2026-01-30 10:43:58</t>
         </is>
       </c>
     </row>
@@ -21904,11 +24472,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr"/>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Bradley-Bourbonnais Community High School</t>
+        </is>
+      </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Nicholas_Markanich</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>Wikipedia</t>
+        </is>
+      </c>
       <c r="M286" t="inlineStr">
         <is>
           <t>Forward</t>
@@ -21943,7 +24523,7 @@
       </c>
       <c r="W286" t="inlineStr">
         <is>
-          <t>2026-01-29T23:30:24.098295</t>
+          <t>2026-01-30 10:24:40</t>
         </is>
       </c>
     </row>
@@ -21979,7 +24559,11 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr"/>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>St. Pius X Catholic High School</t>
+        </is>
+      </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
@@ -22026,7 +24610,7 @@
       </c>
       <c r="W287" t="inlineStr">
         <is>
-          <t>2026-01-29T23:30:31.576055</t>
+          <t>2026-01-30 10:24:43</t>
         </is>
       </c>
     </row>
@@ -39020,11 +41604,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr"/>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>Saint Benedict's Preparatory School</t>
+        </is>
+      </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/New_York_Red_Bulls</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>Wikipedia</t>
+        </is>
+      </c>
       <c r="M512" t="inlineStr">
         <is>
           <t>Goalkeeper</t>
@@ -39059,7 +41655,7 @@
       </c>
       <c r="W512" t="inlineStr">
         <is>
-          <t>2026-01-29T23:16:10.924630</t>
+          <t>2026-01-30 10:31:13</t>
         </is>
       </c>
     </row>
@@ -39434,11 +42030,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr"/>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>Massapequa High School</t>
+        </is>
+      </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Dylan_Nealis</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>Wikipedia</t>
+        </is>
+      </c>
       <c r="M518" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -39473,7 +42081,7 @@
       </c>
       <c r="W518" t="inlineStr">
         <is>
-          <t>2026-01-29T23:16:42.239428</t>
+          <t>2026-01-30 10:31:23</t>
         </is>
       </c>
     </row>
@@ -39584,11 +42192,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr"/>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>Hicksville High School</t>
+        </is>
+      </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Tim_Parker_(soccer)</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>Wikipedia</t>
+        </is>
+      </c>
       <c r="M520" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -39623,7 +42243,7 @@
       </c>
       <c r="W520" t="inlineStr">
         <is>
-          <t>2026-01-29T23:16:54.402181</t>
+          <t>2026-01-30 10:31:32</t>
         </is>
       </c>
     </row>
@@ -39901,11 +42521,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr"/>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>Passaic Valley Regional High School</t>
+        </is>
+      </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Aidan_Stokes</t>
+        </is>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>Wikipedia</t>
+        </is>
+      </c>
       <c r="M525" t="inlineStr">
         <is>
           <t>Goalkeeper</t>
@@ -39940,7 +42572,7 @@
       </c>
       <c r="W525" t="inlineStr">
         <is>
-          <t>2026-01-29T23:17:13.620506</t>
+          <t>2026-01-30 10:31:35</t>
         </is>
       </c>
     </row>
@@ -44755,7 +47387,11 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr"/>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>Kingwood Park High School</t>
+        </is>
+      </c>
       <c r="I591" t="inlineStr">
         <is>
           <t>Houston</t>
@@ -44808,7 +47444,7 @@
       </c>
       <c r="W591" t="inlineStr">
         <is>
-          <t>2026-01-29T23:35:10.075870</t>
+          <t>2026-01-30 10:33:42</t>
         </is>
       </c>
     </row>
@@ -45063,7 +47699,11 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr"/>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>West High School</t>
+        </is>
+      </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
@@ -45110,7 +47750,7 @@
       </c>
       <c r="W595" t="inlineStr">
         <is>
-          <t>2026-01-29T23:35:33.197115</t>
+          <t>2026-01-30 10:33:52</t>
         </is>
       </c>
     </row>
@@ -45371,7 +48011,11 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr"/>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>Roosevelt High School</t>
+        </is>
+      </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
@@ -45418,7 +48062,7 @@
       </c>
       <c r="W599" t="inlineStr">
         <is>
-          <t>2026-01-29T23:35:56.271313</t>
+          <t>2026-01-30 10:33:54</t>
         </is>
       </c>
     </row>
@@ -46676,11 +49320,23 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr"/>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>NSCAA High School</t>
+        </is>
+      </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Justen_Glad</t>
+        </is>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>Wikipedia</t>
+        </is>
+      </c>
       <c r="M616" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -46715,7 +49371,7 @@
       </c>
       <c r="W616" t="inlineStr">
         <is>
-          <t>2026-01-28 23:44:37</t>
+          <t>2026-01-30 10:34:26</t>
         </is>
       </c>
     </row>
@@ -53910,11 +56566,23 @@
           <t>South Korea</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr"/>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>Bukyeong High School</t>
+        </is>
+      </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Kim_Kee-hee</t>
+        </is>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>Wikipedia</t>
+        </is>
+      </c>
       <c r="M712" t="inlineStr">
         <is>
           <t>Defender</t>
@@ -53949,7 +56617,7 @@
       </c>
       <c r="W712" t="inlineStr">
         <is>
-          <t>2026-01-28 11:28:28</t>
+          <t>2026-01-30 10:38:14</t>
         </is>
       </c>
     </row>
